--- a/SummaryQuantifications.xlsx
+++ b/SummaryQuantifications.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Quantification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Quantification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6DD310-1E82-4D7D-9F22-9C25EC7C9392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F61A3B3-0569-4A9C-B6A4-8542E9E2AB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="3420" windowWidth="20910" windowHeight="11835" xr2:uid="{F871268A-CC0A-49A5-A759-07E31F3FF576}"/>
+    <workbookView xWindow="1380" yWindow="-110" windowWidth="20330" windowHeight="14620" xr2:uid="{F871268A-CC0A-49A5-A759-07E31F3FF576}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>inf_dead</t>
   </si>
@@ -338,6 +338,12 @@
       </rPr>
       <t/>
     </r>
+  </si>
+  <si>
+    <t>abun_con</t>
+  </si>
+  <si>
+    <t>abun_inf</t>
   </si>
 </sst>
 </file>
@@ -396,39 +402,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -437,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,48 +429,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,7 +475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -805,347 +771,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CBA86C-CDBB-42AC-820F-19467D995F46}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K9"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>0</v>
       </c>
       <c r="C2" s="13">
+        <v>14782</v>
+      </c>
+      <c r="D2" s="13">
+        <v>12877</v>
+      </c>
+      <c r="E2" s="9">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D2" s="13">
+      <c r="F2" s="9">
         <v>0.72499999999999998</v>
       </c>
-      <c r="E2" s="14">
+      <c r="G2" s="15">
         <v>4590000</v>
       </c>
-      <c r="F2" s="15">
+      <c r="H2" s="10">
         <v>95</v>
       </c>
-      <c r="G2" s="16">
+      <c r="I2" s="10">
         <v>5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="J2" s="10">
         <v>0</v>
       </c>
-      <c r="I2" s="18">
+      <c r="K2" s="11">
         <v>100</v>
       </c>
-      <c r="J2" s="18">
+      <c r="L2" s="11">
         <v>0</v>
       </c>
-      <c r="K2" s="18">
+      <c r="M2" s="11">
         <v>0</v>
       </c>
+      <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <v>20</v>
       </c>
       <c r="C3" s="13">
+        <v>11302</v>
+      </c>
+      <c r="D3" s="13">
+        <v>13857</v>
+      </c>
+      <c r="E3" s="9">
         <v>0.71</v>
       </c>
-      <c r="D3" s="13">
+      <c r="F3" s="9">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E3" s="14">
+      <c r="G3" s="15">
         <v>18600000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="H3" s="10">
         <v>97</v>
       </c>
-      <c r="G3" s="16">
+      <c r="I3" s="10">
         <v>3</v>
       </c>
-      <c r="H3" s="17">
+      <c r="J3" s="10">
         <v>14</v>
       </c>
-      <c r="I3" s="18">
+      <c r="K3" s="11">
         <v>90</v>
       </c>
-      <c r="J3" s="18">
+      <c r="L3" s="11">
         <v>10</v>
       </c>
-      <c r="K3" s="18">
+      <c r="M3" s="11">
         <v>0</v>
       </c>
+      <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>26</v>
       </c>
       <c r="C4" s="13">
+        <v>16589</v>
+      </c>
+      <c r="D4" s="13">
+        <v>13971</v>
+      </c>
+      <c r="E4" s="9">
         <v>0.69699999999999995</v>
       </c>
-      <c r="D4" s="13">
+      <c r="F4" s="9">
         <v>0.68700000000000006</v>
       </c>
-      <c r="E4" s="14">
+      <c r="G4" s="15">
         <v>18600000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="H4" s="10">
         <v>92</v>
       </c>
-      <c r="G4" s="16">
+      <c r="I4" s="10">
         <v>8</v>
       </c>
-      <c r="H4" s="17">
+      <c r="J4" s="10">
         <v>30</v>
       </c>
-      <c r="I4" s="18">
+      <c r="K4" s="11">
         <v>95</v>
       </c>
-      <c r="J4" s="18">
+      <c r="L4" s="11">
         <v>5</v>
       </c>
-      <c r="K4" s="18">
+      <c r="M4" s="11">
         <v>5</v>
       </c>
+      <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>44</v>
       </c>
       <c r="C5" s="13">
+        <v>19439</v>
+      </c>
+      <c r="D5" s="13">
+        <v>7719</v>
+      </c>
+      <c r="E5" s="9">
         <v>0.69699999999999995</v>
       </c>
-      <c r="D5" s="13">
+      <c r="F5" s="9">
         <v>0.59799999999999998</v>
       </c>
-      <c r="E5" s="14">
+      <c r="G5" s="15">
         <v>29000000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="H5" s="10">
         <v>27</v>
       </c>
-      <c r="G5" s="16">
+      <c r="I5" s="10">
         <v>73</v>
       </c>
-      <c r="H5" s="17">
+      <c r="J5" s="10">
         <v>24</v>
       </c>
-      <c r="I5" s="18">
+      <c r="K5" s="11">
         <v>90</v>
       </c>
-      <c r="J5" s="18">
+      <c r="L5" s="11">
         <v>10</v>
       </c>
-      <c r="K5" s="18">
+      <c r="M5" s="11">
         <v>0</v>
       </c>
+      <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>50</v>
       </c>
       <c r="C6" s="13">
+        <v>18097</v>
+      </c>
+      <c r="D6" s="13">
+        <v>4155</v>
+      </c>
+      <c r="E6" s="9">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D6" s="13">
+      <c r="F6" s="9">
         <v>0.52600000000000002</v>
       </c>
-      <c r="E6" s="14">
+      <c r="G6" s="15">
         <v>186000000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="H6" s="10">
         <v>22</v>
       </c>
-      <c r="G6" s="16">
+      <c r="I6" s="10">
         <v>78</v>
       </c>
-      <c r="H6" s="17">
+      <c r="J6" s="10">
         <v>17</v>
       </c>
-      <c r="I6" s="18">
+      <c r="K6" s="11">
         <v>100</v>
       </c>
-      <c r="J6" s="18">
+      <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="18">
+      <c r="M6" s="11">
         <v>0</v>
       </c>
+      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>68</v>
       </c>
       <c r="C7" s="13">
+        <v>29564</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5325</v>
+      </c>
+      <c r="E7" s="9">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D7" s="13">
+      <c r="F7" s="9">
         <v>0.36399999999999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="G7" s="15">
         <v>76000000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="H7" s="10">
         <v>5</v>
       </c>
-      <c r="G7" s="16">
+      <c r="I7" s="10">
         <v>95</v>
       </c>
-      <c r="H7" s="17">
+      <c r="J7" s="10">
         <v>17</v>
       </c>
-      <c r="I7" s="18">
+      <c r="K7" s="11">
         <v>94</v>
       </c>
-      <c r="J7" s="18">
+      <c r="L7" s="11">
         <v>6</v>
       </c>
-      <c r="K7" s="18">
+      <c r="M7" s="11">
         <v>6</v>
       </c>
+      <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>74</v>
       </c>
       <c r="C8" s="13">
+        <v>29266</v>
+      </c>
+      <c r="D8" s="13">
+        <v>4686</v>
+      </c>
+      <c r="E8" s="9">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D8" s="13">
+      <c r="F8" s="9">
         <v>0.312</v>
       </c>
-      <c r="E8" s="14">
+      <c r="G8" s="15">
         <v>47900000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="H8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="16">
+      <c r="I8" s="10">
         <v>98</v>
       </c>
-      <c r="H8" s="17">
+      <c r="J8" s="10">
         <v>17</v>
       </c>
-      <c r="I8" s="18">
+      <c r="K8" s="11">
         <v>100</v>
       </c>
-      <c r="J8" s="18">
+      <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="18">
+      <c r="M8" s="11">
         <v>0</v>
       </c>
+      <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>92</v>
       </c>
       <c r="C9" s="13">
+        <v>26167</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2563</v>
+      </c>
+      <c r="E9" s="9">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D9" s="13">
+      <c r="F9" s="9">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E9" s="14">
+      <c r="G9" s="15">
         <v>47900000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="H9" s="10">
         <v>2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="I9" s="10">
         <v>98</v>
       </c>
-      <c r="H9" s="17">
+      <c r="J9" s="10">
         <v>10</v>
       </c>
-      <c r="I9" s="18">
+      <c r="K9" s="11">
         <v>89</v>
       </c>
-      <c r="J9" s="18">
+      <c r="L9" s="11">
         <v>11</v>
       </c>
-      <c r="K9" s="18">
+      <c r="M9" s="11">
         <v>11</v>
       </c>
+      <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1156,6 +1190,8 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
